--- a/MarvelContestOfChampions/MarvelContestOfChampions.xlsx
+++ b/MarvelContestOfChampions/MarvelContestOfChampions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhangh\个人\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Repository\Games\MarvelContestOfChampions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,6 +407,26 @@
   </si>
   <si>
     <t>适合的英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,18 +760,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -759,490 +779,505 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>66</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>70</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>67</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>72</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>74</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>73</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>73</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>72</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>75</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>74</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>76</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
         <v>77</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>78</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19">
         <v>12</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>78</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20">
         <v>13</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>76</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21">
         <v>17</v>
       </c>
       <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
         <v>79</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>81</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B25">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>65</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26">
         <v>27</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>69</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27">
         <v>28</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>82</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28">
         <v>34</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>83</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29">
         <v>35</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>84</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30">
         <v>42</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>68</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31">
         <v>43</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32">
         <v>46</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>67</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B33">
         <v>24</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>85</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34">
         <v>25</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>86</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35">
         <v>29</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>87</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36">
         <v>33</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>87</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>88</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>75</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39">
         <v>38</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>74</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40">
         <v>41</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>75</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
@@ -1250,188 +1285,194 @@
         <v>30</v>
       </c>
       <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
         <v>77</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42">
         <v>31</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>89</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43">
         <v>32</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>90</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44">
         <v>39</v>
       </c>
       <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" t="s">
         <v>77</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45">
         <v>40</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>78</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46">
         <v>44</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>80</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47">
         <v>45</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>91</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48">
         <v>47</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>80</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>92</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50">
         <v>49</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>93</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51">
         <v>50</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>65</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52">
         <v>51</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>94</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53">
         <v>52</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>88</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54">
         <v>53</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>65</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55">
         <v>54</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56">
         <v>55</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>88</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>62</v>
       </c>
     </row>
